--- a/biology/Zoologie/Carl_Brühl/Carl_Brühl.xlsx
+++ b/biology/Zoologie/Carl_Brühl/Carl_Brühl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carl_Br%C3%BChl</t>
+          <t>Carl_Brühl</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carl Bernhard Brühl, né en 1820 et mort en 1899, est un professeur de zoologie à l'université de Vienne. Lors d'une lecture du poème Nature de Goethe il fait une grande impression sur Sigmund Freud, alors jeune lycéen. Cette lecture est à l'origine de la vocation de Freud pour la médecine[1].
-Carl Brühl initie Freud à l'utilisation du microscope, puis il l'engage pendant 6 semestres pour des expérimentations zoologiques, à la station de zoologie marine expérimentale de Trieste, en Italie, sous la direction de Carl Claus. Freud y étudie les organes sexuels de l'anguille. Ses dissections confirment l'existence de testicules chez l'anguille mâle. Ses travaux sont publiés en 1877 devant l'Académie des sciences de Vienne[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carl Bernhard Brühl, né en 1820 et mort en 1899, est un professeur de zoologie à l'université de Vienne. Lors d'une lecture du poème Nature de Goethe il fait une grande impression sur Sigmund Freud, alors jeune lycéen. Cette lecture est à l'origine de la vocation de Freud pour la médecine.
+Carl Brühl initie Freud à l'utilisation du microscope, puis il l'engage pendant 6 semestres pour des expérimentations zoologiques, à la station de zoologie marine expérimentale de Trieste, en Italie, sous la direction de Carl Claus. Freud y étudie les organes sexuels de l'anguille. Ses dissections confirment l'existence de testicules chez l'anguille mâle. Ses travaux sont publiés en 1877 devant l'Académie des sciences de Vienne.
 </t>
         </is>
       </c>
